--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_22-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_22-21.xlsx
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>CAPIXY HAIR TONIC SPRAY 250 ML</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
@@ -1476,13 +1482,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1494,7 +1500,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1502,17 +1508,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1520,7 +1526,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1528,17 +1534,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1546,7 +1552,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1560,7 +1566,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1572,7 +1578,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1580,17 +1586,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1612,11 +1618,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>47.039999999999999</v>
+        <v>35</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1638,11 +1644,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>33</v>
+        <v>47.039999999999999</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1658,17 +1664,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>67.5</v>
+        <v>33</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1676,7 +1682,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1684,13 +1690,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>21</v>
+        <v>67.5</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1710,17 +1716,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1728,7 +1734,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1736,17 +1742,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1768,11 +1774,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1794,11 +1800,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1814,17 +1820,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1832,7 +1838,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1840,13 +1846,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1858,7 +1864,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1866,7 +1872,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1892,13 +1898,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1910,7 +1916,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1918,17 +1924,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1936,7 +1942,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1944,17 +1950,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>-220</v>
+        <v>104</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1962,7 +1968,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1970,13 +1976,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>-60</v>
+        <v>-220</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1996,13 +2002,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>26</v>
+        <v>-60</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -2014,7 +2020,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2028,7 +2034,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -2040,7 +2046,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2054,7 +2060,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -2066,7 +2072,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2074,17 +2080,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2100,13 +2106,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2118,7 +2124,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2126,17 +2132,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>147.5</v>
+        <v>15</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2144,7 +2150,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2152,13 +2158,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>82</v>
+        <v>147.5</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2170,7 +2176,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2178,17 +2184,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2196,7 +2202,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2204,17 +2210,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2222,7 +2228,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2230,7 +2236,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2240,7 +2246,7 @@
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2256,13 +2262,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2274,7 +2280,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2282,13 +2288,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>30.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2300,7 +2306,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2308,17 +2314,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>16</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2340,11 +2346,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2360,17 +2366,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2378,7 +2384,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2386,17 +2392,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2404,7 +2410,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2412,13 +2418,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2430,7 +2436,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2438,17 +2444,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2456,7 +2462,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2464,17 +2470,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2482,7 +2488,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2490,13 +2496,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2508,7 +2514,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2516,13 +2522,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2534,7 +2540,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2542,17 +2548,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2560,7 +2566,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2568,17 +2574,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2586,7 +2592,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2594,17 +2600,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2612,7 +2618,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2620,17 +2626,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2638,7 +2644,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2646,13 +2652,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2664,7 +2670,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2672,17 +2678,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2690,7 +2696,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2698,17 +2704,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2716,7 +2722,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2724,17 +2730,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2742,7 +2748,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2750,17 +2756,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2776,17 +2782,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2794,7 +2800,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2802,17 +2808,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2820,7 +2826,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2828,17 +2834,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2846,7 +2852,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2854,13 +2860,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2872,7 +2878,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2880,13 +2886,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2898,7 +2904,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2906,17 +2912,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2932,17 +2938,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>19.5</v>
+        <v>48</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2950,7 +2956,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2958,17 +2964,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2984,17 +2990,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -3002,7 +3008,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -3010,7 +3016,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -3028,7 +3034,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3036,13 +3042,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -3054,7 +3060,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3062,13 +3068,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -3088,13 +3094,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3106,7 +3112,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3114,17 +3120,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3132,7 +3138,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3140,17 +3146,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3158,7 +3164,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3172,7 +3178,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3184,7 +3190,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3198,7 +3204,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3210,7 +3216,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3218,17 +3224,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3236,7 +3242,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3244,17 +3250,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3262,7 +3268,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3270,13 +3276,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3288,7 +3294,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3296,13 +3302,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3314,7 +3320,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3322,13 +3328,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3340,7 +3346,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3348,17 +3354,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3366,7 +3372,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3374,17 +3380,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3392,7 +3398,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3400,17 +3406,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3432,11 +3438,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3458,11 +3464,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>20.399999999999999</v>
+        <v>15</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3484,7 +3490,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3504,17 +3510,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3522,7 +3528,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3530,17 +3536,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3548,7 +3554,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3556,17 +3562,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>149.5</v>
+        <v>175</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3574,7 +3580,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3582,13 +3588,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>39</v>
+        <v>149.5</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3600,7 +3606,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3614,11 +3620,11 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3626,7 +3632,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3634,13 +3640,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>-17.09</v>
+        <v>80</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3652,7 +3658,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3660,17 +3666,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>23</v>
+        <v>-17.09</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3678,7 +3684,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3686,13 +3692,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3704,7 +3710,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3712,17 +3718,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3730,7 +3736,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3738,17 +3744,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3756,7 +3762,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3764,13 +3770,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3782,7 +3788,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3790,17 +3796,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>124</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3808,7 +3814,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3816,17 +3822,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3834,7 +3840,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3842,17 +3848,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>32.5</v>
+        <v>36</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3860,7 +3866,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3868,17 +3874,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>26</v>
+        <v>32.5</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3886,7 +3892,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3894,13 +3900,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3912,7 +3918,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3926,7 +3932,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3938,7 +3944,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3946,17 +3952,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3972,17 +3978,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3990,7 +3996,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3998,17 +4004,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>94.5</v>
+        <v>56</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4016,7 +4022,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4024,17 +4030,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>66.640000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4042,7 +4048,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4050,17 +4056,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4076,13 +4082,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4094,7 +4100,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4102,13 +4108,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>133.65000000000001</v>
+        <v>60</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4120,7 +4126,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4128,17 +4134,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>66.959999999999994</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4146,7 +4152,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4154,17 +4160,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>-375</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4172,7 +4178,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4180,13 +4186,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>50</v>
+        <v>-375</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4198,7 +4204,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4206,13 +4212,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4224,7 +4230,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4232,17 +4238,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4250,7 +4256,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4264,11 +4270,11 @@
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4276,7 +4282,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4284,17 +4290,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>29.879999999999999</v>
+        <v>40</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>161</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4302,7 +4308,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4310,17 +4316,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>2</v>
+        <v>29.879999999999999</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4328,7 +4334,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4336,13 +4342,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4354,7 +4360,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4362,17 +4368,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>36</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4380,7 +4386,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4388,17 +4394,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4406,7 +4412,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4420,7 +4426,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4432,7 +4438,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4440,13 +4446,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4458,7 +4464,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4466,13 +4472,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4492,13 +4498,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
@@ -4510,7 +4516,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4518,13 +4524,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
@@ -4536,7 +4542,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4544,13 +4550,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
@@ -4562,7 +4568,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4570,13 +4576,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
@@ -4588,7 +4594,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4596,13 +4602,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
@@ -4614,7 +4620,7 @@
         <v>135</v>
       </c>
       <c t="s" r="B138" s="7">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4622,13 +4628,13 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
@@ -4640,7 +4646,7 @@
         <v>136</v>
       </c>
       <c t="s" r="B139" s="7">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4648,13 +4654,13 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
@@ -4666,7 +4672,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4674,51 +4680,77 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="K141" s="10">
-        <v>6788.75</v>
-      </c>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="11">
+    <row r="141" ht="24.75" customHeight="1">
+      <c r="A141" s="6">
+        <v>138</v>
+      </c>
+      <c t="s" r="B141" s="7">
         <v>179</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c t="s" r="F142" s="12">
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c t="s" r="H141" s="8">
         <v>180</v>
       </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="13"/>
-      <c t="s" r="I142" s="14">
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="9">
+        <v>45</v>
+      </c>
+      <c r="M141" s="9"/>
+      <c t="s" r="N141" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" ht="26.25" customHeight="1">
+      <c r="K142" s="10">
+        <v>6801.75</v>
+      </c>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="11">
         <v>181</v>
       </c>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14"/>
-      <c r="L142" s="14"/>
-      <c r="M142" s="14"/>
-      <c r="N142" s="14"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c t="s" r="F143" s="12">
+        <v>182</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="13"/>
+      <c t="s" r="I143" s="14">
+        <v>183</v>
+      </c>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="425">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5137,10 +5169,13 @@
     <mergeCell ref="B140:G140"/>
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
-    <mergeCell ref="K141:N141"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="I142:N142"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="K142:N142"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="I143:N143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
